--- a/BalanceSheet/EXR_bal.xlsx
+++ b/BalanceSheet/EXR_bal.xlsx
@@ -3573,7 +3573,7 @@
         <v>5298000000.0</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>5255000000.0</v>
+        <v>5572753000.0</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>4745285000.0</v>
@@ -3700,7 +3700,7 @@
         <v>5396000000.0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>5326000000.0</v>
+        <v>5643486000.0</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>4812000000.0</v>
